--- a/huggingface_pretrained_models_accuracy.xlsx
+++ b/huggingface_pretrained_models_accuracy.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_of_python\pytorch_text_classification\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="13455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bert4keras" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$C$48</definedName>
@@ -19,7 +25,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="tmp" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="/Users/chang/Documents/tmp.txt.rtf" tab="0" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
   <si>
     <t>bert-base-chinese</t>
   </si>
@@ -189,19 +195,157 @@
   </si>
   <si>
     <t>freeze</t>
+  </si>
+  <si>
+    <t>albert</t>
+  </si>
+  <si>
+    <t>albert_base</t>
+  </si>
+  <si>
+    <t>albert_large</t>
+  </si>
+  <si>
+    <t>albert_xlarge</t>
+  </si>
+  <si>
+    <t>albert_xxlarge</t>
+  </si>
+  <si>
+    <t>albert_zh</t>
+  </si>
+  <si>
+    <t>albert_base_google_zh_additional_36k_steps</t>
+  </si>
+  <si>
+    <t>albert_large_google_zh</t>
+  </si>
+  <si>
+    <t>albert_small_zh_google</t>
+  </si>
+  <si>
+    <t>albert_tiny_google_zh_489k</t>
+  </si>
+  <si>
+    <t>albert_tiny_zh_google</t>
+  </si>
+  <si>
+    <t>albert_xlarge_google_zh_183k</t>
+  </si>
+  <si>
+    <t>chinese_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>bert</t>
+  </si>
+  <si>
+    <t>Chinese-BERT-wwm</t>
+  </si>
+  <si>
+    <t>chinese_rbt3_L-3_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_rbtl3_L-3_H-1024_A-16</t>
+  </si>
+  <si>
+    <t>chinese_roberta_wwm_ext_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_roberta_wwm_large_ext_L-24_H-1024_A-16</t>
+  </si>
+  <si>
+    <t>chinese_wwm_ext_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_bert_wwm_L-12_H-768_A-12/publish</t>
+  </si>
+  <si>
+    <t>chinese_rbt4_L-4_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_rbt6_L-6_H-768_A-12</t>
+  </si>
+  <si>
+    <t>Chinese-ELECTRA</t>
+  </si>
+  <si>
+    <t>chinese_electra_base_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_electra_small_L-12_H-256_A-4</t>
+  </si>
+  <si>
+    <t>ELECTRA</t>
+  </si>
+  <si>
+    <t>electra_tiny</t>
+  </si>
+  <si>
+    <t>roberta_zh</t>
+  </si>
+  <si>
+    <t>roberta_zh_l12</t>
+  </si>
+  <si>
+    <t>roberta_zh_L-6-H-768_A-12</t>
+  </si>
+  <si>
+    <t>roeberta_zh_L-24_H-1024_A-16</t>
+  </si>
+  <si>
+    <t>zhuiyi</t>
+  </si>
+  <si>
+    <t>chinese_roberta_L-4_H-312_A-12</t>
+  </si>
+  <si>
+    <t>chinese_roberta_L-4_H-312_A-12_K-104</t>
+  </si>
+  <si>
+    <t>chinese_roberta_L-6_H-384_A-12</t>
+  </si>
+  <si>
+    <t>chinese_roberta_L-6_H-384_A-12_K-128</t>
+  </si>
+  <si>
+    <t>chinese_simbert_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_simbert_L-4_H-312_A-12</t>
+  </si>
+  <si>
+    <t>chinese_simbert_L-6_H-384_A-12</t>
+  </si>
+  <si>
+    <t>chinese_wobert_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_wobert_plus_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>chinese_wonezha_L-12_H-768_A-12</t>
+  </si>
+  <si>
+    <t>nezha</t>
+  </si>
+  <si>
+    <t>NEZHA-Large-WWM</t>
+  </si>
+  <si>
+    <t>NEZHA-Large</t>
+  </si>
+  <si>
+    <t>NEZHA-Base-WWM</t>
+  </si>
+  <si>
+    <t>NEZHA-Base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,345 +354,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -556,317 +398,40 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1128,27 +693,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.7589285714286" customWidth="1"/>
-    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,13 +721,13 @@
         <v>393</v>
       </c>
       <c r="C1" s="1">
-        <v>0.5461</v>
+        <v>0.54610000000000003</v>
       </c>
       <c r="D1" s="1">
         <v>0.5454</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1170,13 +735,13 @@
         <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>0.4074</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.39479999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1184,13 +749,13 @@
         <v>391</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5407</v>
+        <v>0.54069999999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.53959999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1201,10 +766,10 @@
         <v>0.4738</v>
       </c>
       <c r="D4" s="1">
-        <v>0.4807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.48070000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1212,13 +777,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4663</v>
+        <v>0.46629999999999999</v>
       </c>
       <c r="D5" s="1">
         <v>0.4708</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1229,10 +794,10 @@
         <v>0.2135</v>
       </c>
       <c r="D6" s="1">
-        <v>0.2119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.21190000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1240,13 +805,13 @@
         <v>111</v>
       </c>
       <c r="C7" s="1">
-        <v>0.2886</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="D7" s="1">
         <v>0.2994</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1254,13 +819,13 @@
         <v>393</v>
       </c>
       <c r="C8" s="1">
-        <v>0.2605</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>0.2551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.25509999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1268,13 +833,13 @@
         <v>1331</v>
       </c>
       <c r="C9" s="1">
-        <v>0.2534</v>
+        <v>0.25340000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.2497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.24970000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1285,10 +850,10 @@
         <v>0.2288</v>
       </c>
       <c r="D10" s="1">
-        <v>0.2221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.22209999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1296,13 +861,13 @@
         <v>1331</v>
       </c>
       <c r="C11" s="1">
-        <v>0.2463</v>
+        <v>0.24629999999999999</v>
       </c>
       <c r="D11" s="1">
         <v>0.2419</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1310,13 +875,13 @@
         <v>1331</v>
       </c>
       <c r="C12" s="1">
-        <v>0.2526</v>
+        <v>0.25259999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>0.2503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.25030000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1324,13 +889,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>0.226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>0.2206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.22059999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1338,13 +903,13 @@
         <v>1433</v>
       </c>
       <c r="C14" s="1">
-        <v>0.4599</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>0.4634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.46339999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1352,13 +917,13 @@
         <v>393</v>
       </c>
       <c r="C15" s="1">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>0.5487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1366,13 +931,13 @@
         <v>393</v>
       </c>
       <c r="C16" s="1">
-        <v>0.5553</v>
+        <v>0.55530000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>0.5558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.55579999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1380,13 +945,13 @@
         <v>391</v>
       </c>
       <c r="C17" s="1">
-        <v>0.3386</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>0.3371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.33710000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1394,13 +959,13 @@
         <v>1331</v>
       </c>
       <c r="C18" s="1">
-        <v>0.351</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D18" s="1">
         <v>0.3478</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1414,7 +979,7 @@
         <v>0.2853</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1422,13 +987,13 @@
         <v>94</v>
       </c>
       <c r="C20" s="1">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>0.272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1439,10 +1004,10 @@
         <v>0.2787</v>
       </c>
       <c r="D21" s="1">
-        <v>0.2751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.27510000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1450,13 +1015,13 @@
         <v>86</v>
       </c>
       <c r="C22" s="1">
-        <v>0.4648</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>0.468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1464,13 +1029,13 @@
         <v>1331</v>
       </c>
       <c r="C23" s="1">
-        <v>0.2395</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.2259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.22589999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1478,13 +1043,13 @@
         <v>160</v>
       </c>
       <c r="C24" s="1">
-        <v>0.4912</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="D24" s="1">
         <v>0.498</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1492,13 +1057,13 @@
         <v>94</v>
       </c>
       <c r="C25" s="1">
-        <v>0.2659</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>0.2604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.26040000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1506,13 +1071,13 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>0.4005</v>
+        <v>0.40050000000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>0.4001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.40010000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1520,13 +1085,13 @@
         <v>86</v>
       </c>
       <c r="C27" s="1">
-        <v>0.4374</v>
+        <v>0.43740000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.43740000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1534,13 +1099,13 @@
         <v>160</v>
       </c>
       <c r="C28" s="1">
-        <v>0.4762</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="D28" s="1">
-        <v>0.4739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.47389999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1548,13 +1113,13 @@
         <v>48</v>
       </c>
       <c r="C29" s="1">
-        <v>0.2582</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>0.2599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.25990000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1562,13 +1127,13 @@
         <v>14</v>
       </c>
       <c r="C30" s="1">
-        <v>0.2466</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.2425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.24249999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1576,13 +1141,13 @@
         <v>393</v>
       </c>
       <c r="C31" s="1">
-        <v>0.5573</v>
+        <v>0.55730000000000002</v>
       </c>
       <c r="D31" s="1">
         <v>0.5585</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1590,13 +1155,13 @@
         <v>1331</v>
       </c>
       <c r="C32" s="1">
-        <v>0.5633</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="D32" s="1">
-        <v>0.5577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.55769999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1604,13 +1169,13 @@
         <v>393</v>
       </c>
       <c r="C33" s="1">
-        <v>0.5364</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="D33" s="1">
         <v>0.5383</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1618,13 +1183,13 @@
         <v>1331</v>
       </c>
       <c r="C34" s="1">
-        <v>0.3859</v>
+        <v>0.38590000000000002</v>
       </c>
       <c r="D34" s="1">
-        <v>0.3883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.38829999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1632,13 +1197,13 @@
         <v>393</v>
       </c>
       <c r="C35" s="1">
-        <v>0.5652</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="D35" s="1">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1646,13 +1211,13 @@
         <v>1331</v>
       </c>
       <c r="C36" s="1">
-        <v>0.5682</v>
+        <v>0.56820000000000004</v>
       </c>
       <c r="D36" s="1">
-        <v>0.5621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.56210000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1663,10 +1228,10 @@
         <v>0.4798</v>
       </c>
       <c r="D37" s="1">
-        <v>0.4802</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.48020000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1674,13 +1239,13 @@
         <v>797</v>
       </c>
       <c r="C38" s="1">
-        <v>0.4443</v>
+        <v>0.44429999999999997</v>
       </c>
       <c r="D38" s="1">
-        <v>0.4317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.43169999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1688,13 +1253,13 @@
         <v>150</v>
       </c>
       <c r="C39" s="1">
-        <v>0.5187</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="D39" s="1">
-        <v>0.5201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.52010000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1702,13 +1267,13 @@
         <v>177</v>
       </c>
       <c r="C40" s="1">
-        <v>0.5319</v>
+        <v>0.53190000000000004</v>
       </c>
       <c r="D40" s="1">
-        <v>0.5298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.52980000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1716,13 +1281,13 @@
         <v>231</v>
       </c>
       <c r="C41" s="1">
-        <v>0.5317</v>
+        <v>0.53169999999999995</v>
       </c>
       <c r="D41" s="1">
-        <v>0.5381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.53810000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1730,13 +1295,13 @@
         <v>237</v>
       </c>
       <c r="C42" s="1">
-        <v>0.5315</v>
+        <v>0.53149999999999997</v>
       </c>
       <c r="D42" s="1">
-        <v>0.5339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.53390000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1747,10 +1312,10 @@
         <v>0.4798</v>
       </c>
       <c r="D43" s="1">
-        <v>0.4887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.48870000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1758,13 +1323,13 @@
         <v>1331</v>
       </c>
       <c r="C44" s="1">
-        <v>0.5345</v>
+        <v>0.53449999999999998</v>
       </c>
       <c r="D44" s="1">
-        <v>0.5352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.53520000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1772,13 +1337,13 @@
         <v>1331</v>
       </c>
       <c r="C45" s="1">
-        <v>0.5097</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="D45" s="1">
-        <v>0.4956</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.49559999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1786,13 +1351,13 @@
         <v>392</v>
       </c>
       <c r="C46" s="1">
-        <v>0.1619</v>
+        <v>0.16189999999999999</v>
       </c>
       <c r="D46" s="1">
-        <v>0.1536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.15359999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1800,13 +1365,13 @@
         <v>92</v>
       </c>
       <c r="C47" s="1">
-        <v>0.5167</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="D47" s="1">
-        <v>0.5191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.51910000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1814,36 +1379,35 @@
         <v>391</v>
       </c>
       <c r="C48" s="1">
-        <v>0.4805</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="D48" s="1">
-        <v>0.4785</v>
+        <v>0.47849999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.7589285714286" customWidth="1"/>
-    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1860,7 +1424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1868,14 +1432,13 @@
         <v>1331</v>
       </c>
       <c r="C2" s="1">
-        <v>0.5682</v>
+        <v>0.56820000000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5621</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="1" spans="1:5">
+        <v>0.56210000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1883,14 +1446,13 @@
         <v>393</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5652</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="D3" s="1">
         <v>0.5595</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="1" spans="1:5">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1898,14 +1460,13 @@
         <v>393</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5573</v>
+        <v>0.55730000000000002</v>
       </c>
       <c r="D4" s="1">
         <v>0.5585</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1913,14 +1474,13 @@
         <v>1331</v>
       </c>
       <c r="C5" s="1">
-        <v>0.5633</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>0.5577</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:5">
+        <v>0.55769999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1928,14 +1488,13 @@
         <v>393</v>
       </c>
       <c r="C6" s="1">
-        <v>0.5553</v>
+        <v>0.55530000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>0.5558</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:5">
+        <v>0.55579999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1943,14 +1502,13 @@
         <v>393</v>
       </c>
       <c r="C7" s="1">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>0.5487</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:5">
+        <v>0.54869999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1958,14 +1516,13 @@
         <v>393</v>
       </c>
       <c r="C8" s="1">
-        <v>0.5461</v>
+        <v>0.54610000000000003</v>
       </c>
       <c r="D8" s="1">
         <v>0.5454</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:5">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1973,14 +1530,13 @@
         <v>391</v>
       </c>
       <c r="C9" s="1">
-        <v>0.5407</v>
+        <v>0.54069999999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>0.5396</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:5">
+        <v>0.53959999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1988,14 +1544,13 @@
         <v>393</v>
       </c>
       <c r="C10" s="1">
-        <v>0.5364</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="D10" s="1">
         <v>0.5383</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:5">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2003,14 +1558,13 @@
         <v>231</v>
       </c>
       <c r="C11" s="1">
-        <v>0.5317</v>
+        <v>0.53169999999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5381</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:5">
+        <v>0.53810000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2018,14 +1572,13 @@
         <v>1331</v>
       </c>
       <c r="C12" s="1">
-        <v>0.5345</v>
+        <v>0.53449999999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>0.5352</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:5">
+        <v>0.53520000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2033,14 +1586,13 @@
         <v>237</v>
       </c>
       <c r="C13" s="1">
-        <v>0.5315</v>
+        <v>0.53149999999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>0.5339</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:5">
+        <v>0.53390000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2048,14 +1600,13 @@
         <v>177</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5319</v>
+        <v>0.53190000000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>0.5298</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
+        <v>0.52980000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2063,14 +1614,13 @@
         <v>150</v>
       </c>
       <c r="C15" s="1">
-        <v>0.5187</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>0.5201</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:5">
+        <v>0.52010000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2078,14 +1628,13 @@
         <v>92</v>
       </c>
       <c r="C16" s="1">
-        <v>0.5167</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>0.5191</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:5">
+        <v>0.51910000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2093,14 +1642,13 @@
         <v>160</v>
       </c>
       <c r="C17" s="1">
-        <v>0.4912</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="D17" s="1">
         <v>0.498</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:5">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2108,14 +1656,13 @@
         <v>1331</v>
       </c>
       <c r="C18" s="1">
-        <v>0.5097</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>0.4956</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:5">
+        <v>0.49559999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2126,11 +1673,10 @@
         <v>0.4798</v>
       </c>
       <c r="D19" s="1">
-        <v>0.4887</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:5">
+        <v>0.48870000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2141,11 +1687,10 @@
         <v>0.4738</v>
       </c>
       <c r="D20" s="1">
-        <v>0.4807</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:5">
+        <v>0.48070000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2156,11 +1701,10 @@
         <v>0.4798</v>
       </c>
       <c r="D21" s="1">
-        <v>0.4802</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:5">
+        <v>0.48020000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2168,14 +1712,13 @@
         <v>391</v>
       </c>
       <c r="C22" s="1">
-        <v>0.4805</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>0.4785</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:5">
+        <v>0.47849999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2183,14 +1726,13 @@
         <v>160</v>
       </c>
       <c r="C23" s="1">
-        <v>0.4762</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>0.4739</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:5">
+        <v>0.47389999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2198,14 +1740,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>0.4663</v>
+        <v>0.46629999999999999</v>
       </c>
       <c r="D24" s="1">
         <v>0.4708</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:5">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2213,14 +1754,13 @@
         <v>86</v>
       </c>
       <c r="C25" s="1">
-        <v>0.4648</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>0.468</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:5">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2228,14 +1768,13 @@
         <v>1433</v>
       </c>
       <c r="C26" s="1">
-        <v>0.4599</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>0.4634</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:5">
+        <v>0.46339999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2243,14 +1782,13 @@
         <v>86</v>
       </c>
       <c r="C27" s="1">
-        <v>0.4374</v>
+        <v>0.43740000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4374</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:5">
+        <v>0.43740000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2258,14 +1796,13 @@
         <v>797</v>
       </c>
       <c r="C28" s="1">
-        <v>0.4443</v>
+        <v>0.44429999999999997</v>
       </c>
       <c r="D28" s="1">
-        <v>0.4317</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:5">
+        <v>0.43169999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2273,14 +1810,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>0.4005</v>
+        <v>0.40050000000000002</v>
       </c>
       <c r="D29" s="1">
-        <v>0.4001</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:5">
+        <v>0.40010000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2288,14 +1824,13 @@
         <v>16</v>
       </c>
       <c r="C30" s="1">
-        <v>0.4074</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="D30" s="1">
-        <v>0.3948</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:5">
+        <v>0.39479999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2303,14 +1838,13 @@
         <v>1331</v>
       </c>
       <c r="C31" s="1">
-        <v>0.3859</v>
+        <v>0.38590000000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>0.3883</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:5">
+        <v>0.38829999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2318,14 +1852,13 @@
         <v>1331</v>
       </c>
       <c r="C32" s="1">
-        <v>0.351</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D32" s="1">
         <v>0.3478</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:5">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2333,14 +1866,13 @@
         <v>391</v>
       </c>
       <c r="C33" s="1">
-        <v>0.3386</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="D33" s="1">
-        <v>0.3371</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:5">
+        <v>0.33710000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2348,14 +1880,13 @@
         <v>111</v>
       </c>
       <c r="C34" s="1">
-        <v>0.2886</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="D34" s="1">
         <v>0.2994</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:5">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2368,9 +1899,8 @@
       <c r="D35" s="1">
         <v>0.2853</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:5">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2381,11 +1911,10 @@
         <v>0.2787</v>
       </c>
       <c r="D36" s="1">
-        <v>0.2751</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:5">
+        <v>0.27510000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2393,14 +1922,13 @@
         <v>94</v>
       </c>
       <c r="C37" s="1">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D37" s="1">
-        <v>0.272</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="1" spans="1:5">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2408,14 +1936,13 @@
         <v>94</v>
       </c>
       <c r="C38" s="1">
-        <v>0.2659</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="D38" s="1">
-        <v>0.2604</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:5">
+        <v>0.26040000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2423,14 +1950,13 @@
         <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>0.2582</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="D39" s="1">
-        <v>0.2599</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:5">
+        <v>0.25990000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2438,14 +1964,13 @@
         <v>393</v>
       </c>
       <c r="C40" s="1">
-        <v>0.2605</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="D40" s="1">
-        <v>0.2551</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:5">
+        <v>0.25509999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2453,14 +1978,13 @@
         <v>1331</v>
       </c>
       <c r="C41" s="1">
-        <v>0.2526</v>
+        <v>0.25259999999999999</v>
       </c>
       <c r="D41" s="1">
-        <v>0.2503</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:5">
+        <v>0.25030000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2468,14 +1992,13 @@
         <v>1331</v>
       </c>
       <c r="C42" s="1">
-        <v>0.2534</v>
+        <v>0.25340000000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>0.2497</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:5">
+        <v>0.24970000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2483,14 +2006,13 @@
         <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>0.2466</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="D43" s="1">
-        <v>0.2425</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="1" spans="1:5">
+        <v>0.24249999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2498,14 +2020,13 @@
         <v>1331</v>
       </c>
       <c r="C44" s="1">
-        <v>0.2463</v>
+        <v>0.24629999999999999</v>
       </c>
       <c r="D44" s="1">
         <v>0.2419</v>
       </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:5">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2513,14 +2034,13 @@
         <v>1331</v>
       </c>
       <c r="C45" s="1">
-        <v>0.2395</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>0.2259</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="1" spans="1:5">
+        <v>0.22589999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2531,11 +2051,10 @@
         <v>0.2288</v>
       </c>
       <c r="D46" s="1">
-        <v>0.2221</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:5">
+        <v>0.22209999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2543,14 +2062,13 @@
         <v>29</v>
       </c>
       <c r="C47" s="1">
-        <v>0.226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D47" s="1">
-        <v>0.2206</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="1" spans="1:5">
+        <v>0.22059999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2561,11 +2079,10 @@
         <v>0.2135</v>
       </c>
       <c r="D48" s="1">
-        <v>0.2119</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:5">
+        <v>0.21190000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2573,18 +2090,475 @@
         <v>392</v>
       </c>
       <c r="C49" s="1">
-        <v>0.1619</v>
+        <v>0.16189999999999999</v>
       </c>
       <c r="D49" s="1">
-        <v>0.1536</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>0.15359999999999999</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:D48">
-    <sortCondition ref="D1" descending="1"/>
+    <sortCondition descending="1" ref="D1"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/huggingface_pretrained_models_accuracy.xlsx
+++ b/huggingface_pretrained_models_accuracy.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_of_python\pytorch_text_classification\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="13455" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="13460" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="huggingface" sheetId="1" r:id="rId1"/>
+    <sheet name="huggingface_sort" sheetId="2" r:id="rId2"/>
     <sheet name="bert4keras" sheetId="3" r:id="rId3"/>
+    <sheet name="bert4keras_sort" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$C$48</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">huggingface!$A$1:$C$48</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -25,7 +21,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp" type="6" refreshedVersion="2" background="1" saveData="1">
+  <connection id="1" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/chang/Documents/tmp.txt.rtf" tab="0" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>bert-base-chinese</t>
   </si>
@@ -233,12 +229,12 @@
     <t>albert_xlarge_google_zh_183k</t>
   </si>
   <si>
+    <t>bert</t>
+  </si>
+  <si>
     <t>chinese_L-12_H-768_A-12</t>
   </si>
   <si>
-    <t>bert</t>
-  </si>
-  <si>
     <t>Chinese-BERT-wwm</t>
   </si>
   <si>
@@ -339,13 +335,22 @@
   </si>
   <si>
     <t>NEZHA-Base</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,43 +359,366 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF808080"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -398,13 +726,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,24 +984,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -693,19 +1313,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="5.625" customWidth="1"/>
@@ -713,7 +1333,7 @@
     <col min="4" max="5" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,13 +1341,13 @@
         <v>393</v>
       </c>
       <c r="C1" s="1">
-        <v>0.54610000000000003</v>
+        <v>0.5461</v>
       </c>
       <c r="D1" s="1">
         <v>0.5454</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -735,13 +1355,13 @@
         <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>0.40739999999999998</v>
+        <v>0.4074</v>
       </c>
       <c r="D2" s="1">
-        <v>0.39479999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -749,13 +1369,13 @@
         <v>391</v>
       </c>
       <c r="C3" s="1">
-        <v>0.54069999999999996</v>
+        <v>0.5407</v>
       </c>
       <c r="D3" s="1">
-        <v>0.53959999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -766,10 +1386,10 @@
         <v>0.4738</v>
       </c>
       <c r="D4" s="1">
-        <v>0.48070000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -777,13 +1397,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>0.46629999999999999</v>
+        <v>0.4663</v>
       </c>
       <c r="D5" s="1">
         <v>0.4708</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -794,10 +1414,10 @@
         <v>0.2135</v>
       </c>
       <c r="D6" s="1">
-        <v>0.21190000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -805,13 +1425,13 @@
         <v>111</v>
       </c>
       <c r="C7" s="1">
-        <v>0.28860000000000002</v>
+        <v>0.2886</v>
       </c>
       <c r="D7" s="1">
         <v>0.2994</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -819,13 +1439,13 @@
         <v>393</v>
       </c>
       <c r="C8" s="1">
-        <v>0.26050000000000001</v>
+        <v>0.2605</v>
       </c>
       <c r="D8" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -833,13 +1453,13 @@
         <v>1331</v>
       </c>
       <c r="C9" s="1">
-        <v>0.25340000000000001</v>
+        <v>0.2534</v>
       </c>
       <c r="D9" s="1">
-        <v>0.24970000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -850,10 +1470,10 @@
         <v>0.2288</v>
       </c>
       <c r="D10" s="1">
-        <v>0.22209999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -861,13 +1481,13 @@
         <v>1331</v>
       </c>
       <c r="C11" s="1">
-        <v>0.24629999999999999</v>
+        <v>0.2463</v>
       </c>
       <c r="D11" s="1">
         <v>0.2419</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -875,13 +1495,13 @@
         <v>1331</v>
       </c>
       <c r="C12" s="1">
-        <v>0.25259999999999999</v>
+        <v>0.2526</v>
       </c>
       <c r="D12" s="1">
-        <v>0.25030000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -889,13 +1509,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="D13" s="1">
-        <v>0.22059999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -903,13 +1523,13 @@
         <v>1433</v>
       </c>
       <c r="C14" s="1">
-        <v>0.45989999999999998</v>
+        <v>0.4599</v>
       </c>
       <c r="D14" s="1">
-        <v>0.46339999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -917,13 +1537,13 @@
         <v>393</v>
       </c>
       <c r="C15" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.545</v>
       </c>
       <c r="D15" s="1">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -931,13 +1551,13 @@
         <v>393</v>
       </c>
       <c r="C16" s="1">
-        <v>0.55530000000000002</v>
+        <v>0.5553</v>
       </c>
       <c r="D16" s="1">
-        <v>0.55579999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -945,13 +1565,13 @@
         <v>391</v>
       </c>
       <c r="C17" s="1">
-        <v>0.33860000000000001</v>
+        <v>0.3386</v>
       </c>
       <c r="D17" s="1">
-        <v>0.33710000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -959,13 +1579,13 @@
         <v>1331</v>
       </c>
       <c r="C18" s="1">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="D18" s="1">
         <v>0.3478</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -979,7 +1599,7 @@
         <v>0.2853</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -987,13 +1607,13 @@
         <v>94</v>
       </c>
       <c r="C20" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="D20" s="1">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1004,10 +1624,10 @@
         <v>0.2787</v>
       </c>
       <c r="D21" s="1">
-        <v>0.27510000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1015,13 +1635,13 @@
         <v>86</v>
       </c>
       <c r="C22" s="1">
-        <v>0.46479999999999999</v>
+        <v>0.4648</v>
       </c>
       <c r="D22" s="1">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1029,13 +1649,13 @@
         <v>1331</v>
       </c>
       <c r="C23" s="1">
-        <v>0.23949999999999999</v>
+        <v>0.2395</v>
       </c>
       <c r="D23" s="1">
-        <v>0.22589999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1043,13 +1663,13 @@
         <v>160</v>
       </c>
       <c r="C24" s="1">
-        <v>0.49120000000000003</v>
+        <v>0.4912</v>
       </c>
       <c r="D24" s="1">
         <v>0.498</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1057,13 +1677,13 @@
         <v>94</v>
       </c>
       <c r="C25" s="1">
-        <v>0.26590000000000003</v>
+        <v>0.2659</v>
       </c>
       <c r="D25" s="1">
-        <v>0.26040000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1071,13 +1691,13 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>0.40050000000000002</v>
+        <v>0.4005</v>
       </c>
       <c r="D26" s="1">
-        <v>0.40010000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1085,13 +1705,13 @@
         <v>86</v>
       </c>
       <c r="C27" s="1">
-        <v>0.43740000000000001</v>
+        <v>0.4374</v>
       </c>
       <c r="D27" s="1">
-        <v>0.43740000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1099,13 +1719,13 @@
         <v>160</v>
       </c>
       <c r="C28" s="1">
-        <v>0.47620000000000001</v>
+        <v>0.4762</v>
       </c>
       <c r="D28" s="1">
-        <v>0.47389999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1113,13 +1733,13 @@
         <v>48</v>
       </c>
       <c r="C29" s="1">
-        <v>0.25819999999999999</v>
+        <v>0.2582</v>
       </c>
       <c r="D29" s="1">
-        <v>0.25990000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1127,13 +1747,13 @@
         <v>14</v>
       </c>
       <c r="C30" s="1">
-        <v>0.24660000000000001</v>
+        <v>0.2466</v>
       </c>
       <c r="D30" s="1">
-        <v>0.24249999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1141,13 +1761,13 @@
         <v>393</v>
       </c>
       <c r="C31" s="1">
-        <v>0.55730000000000002</v>
+        <v>0.5573</v>
       </c>
       <c r="D31" s="1">
         <v>0.5585</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1155,13 +1775,13 @@
         <v>1331</v>
       </c>
       <c r="C32" s="1">
-        <v>0.56330000000000002</v>
+        <v>0.5633</v>
       </c>
       <c r="D32" s="1">
-        <v>0.55769999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1169,13 +1789,13 @@
         <v>393</v>
       </c>
       <c r="C33" s="1">
-        <v>0.53639999999999999</v>
+        <v>0.5364</v>
       </c>
       <c r="D33" s="1">
         <v>0.5383</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1183,13 +1803,13 @@
         <v>1331</v>
       </c>
       <c r="C34" s="1">
-        <v>0.38590000000000002</v>
+        <v>0.3859</v>
       </c>
       <c r="D34" s="1">
-        <v>0.38829999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1197,13 +1817,13 @@
         <v>393</v>
       </c>
       <c r="C35" s="1">
-        <v>0.56520000000000004</v>
+        <v>0.5652</v>
       </c>
       <c r="D35" s="1">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1211,13 +1831,13 @@
         <v>1331</v>
       </c>
       <c r="C36" s="1">
-        <v>0.56820000000000004</v>
+        <v>0.5682</v>
       </c>
       <c r="D36" s="1">
-        <v>0.56210000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1228,10 +1848,10 @@
         <v>0.4798</v>
       </c>
       <c r="D37" s="1">
-        <v>0.48020000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1239,13 +1859,13 @@
         <v>797</v>
       </c>
       <c r="C38" s="1">
-        <v>0.44429999999999997</v>
+        <v>0.4443</v>
       </c>
       <c r="D38" s="1">
-        <v>0.43169999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1253,13 +1873,13 @@
         <v>150</v>
       </c>
       <c r="C39" s="1">
-        <v>0.51870000000000005</v>
+        <v>0.5187</v>
       </c>
       <c r="D39" s="1">
-        <v>0.52010000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1267,13 +1887,13 @@
         <v>177</v>
       </c>
       <c r="C40" s="1">
-        <v>0.53190000000000004</v>
+        <v>0.5319</v>
       </c>
       <c r="D40" s="1">
-        <v>0.52980000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1281,13 +1901,13 @@
         <v>231</v>
       </c>
       <c r="C41" s="1">
-        <v>0.53169999999999995</v>
+        <v>0.5317</v>
       </c>
       <c r="D41" s="1">
-        <v>0.53810000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1295,13 +1915,13 @@
         <v>237</v>
       </c>
       <c r="C42" s="1">
-        <v>0.53149999999999997</v>
+        <v>0.5315</v>
       </c>
       <c r="D42" s="1">
-        <v>0.53390000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1312,10 +1932,10 @@
         <v>0.4798</v>
       </c>
       <c r="D43" s="1">
-        <v>0.48870000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1323,13 +1943,13 @@
         <v>1331</v>
       </c>
       <c r="C44" s="1">
-        <v>0.53449999999999998</v>
+        <v>0.5345</v>
       </c>
       <c r="D44" s="1">
-        <v>0.53520000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1337,13 +1957,13 @@
         <v>1331</v>
       </c>
       <c r="C45" s="1">
-        <v>0.50970000000000004</v>
+        <v>0.5097</v>
       </c>
       <c r="D45" s="1">
-        <v>0.49559999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1351,13 +1971,13 @@
         <v>392</v>
       </c>
       <c r="C46" s="1">
-        <v>0.16189999999999999</v>
+        <v>0.1619</v>
       </c>
       <c r="D46" s="1">
-        <v>0.15359999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.1536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1365,13 +1985,13 @@
         <v>92</v>
       </c>
       <c r="C47" s="1">
-        <v>0.51670000000000005</v>
+        <v>0.5167</v>
       </c>
       <c r="D47" s="1">
-        <v>0.51910000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1379,27 +1999,28 @@
         <v>391</v>
       </c>
       <c r="C48" s="1">
-        <v>0.48049999999999998</v>
+        <v>0.4805</v>
       </c>
       <c r="D48" s="1">
-        <v>0.47849999999999998</v>
+        <v>0.4785</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="5.625" customWidth="1"/>
@@ -1407,24 +2028,24 @@
     <col min="4" max="5" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1432,13 +2053,13 @@
         <v>1331</v>
       </c>
       <c r="C2" s="1">
-        <v>0.56820000000000004</v>
+        <v>0.5682</v>
       </c>
       <c r="D2" s="1">
-        <v>0.56210000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1446,13 +2067,13 @@
         <v>393</v>
       </c>
       <c r="C3" s="1">
-        <v>0.56520000000000004</v>
+        <v>0.5652</v>
       </c>
       <c r="D3" s="1">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1460,13 +2081,13 @@
         <v>393</v>
       </c>
       <c r="C4" s="1">
-        <v>0.55730000000000002</v>
+        <v>0.5573</v>
       </c>
       <c r="D4" s="1">
         <v>0.5585</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1474,13 +2095,13 @@
         <v>1331</v>
       </c>
       <c r="C5" s="1">
-        <v>0.56330000000000002</v>
+        <v>0.5633</v>
       </c>
       <c r="D5" s="1">
-        <v>0.55769999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1488,13 +2109,13 @@
         <v>393</v>
       </c>
       <c r="C6" s="1">
-        <v>0.55530000000000002</v>
+        <v>0.5553</v>
       </c>
       <c r="D6" s="1">
-        <v>0.55579999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1502,13 +2123,13 @@
         <v>393</v>
       </c>
       <c r="C7" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.545</v>
       </c>
       <c r="D7" s="1">
-        <v>0.54869999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1516,13 +2137,13 @@
         <v>393</v>
       </c>
       <c r="C8" s="1">
-        <v>0.54610000000000003</v>
+        <v>0.5461</v>
       </c>
       <c r="D8" s="1">
         <v>0.5454</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1530,13 +2151,13 @@
         <v>391</v>
       </c>
       <c r="C9" s="1">
-        <v>0.54069999999999996</v>
+        <v>0.5407</v>
       </c>
       <c r="D9" s="1">
-        <v>0.53959999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1544,13 +2165,13 @@
         <v>393</v>
       </c>
       <c r="C10" s="1">
-        <v>0.53639999999999999</v>
+        <v>0.5364</v>
       </c>
       <c r="D10" s="1">
         <v>0.5383</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1558,13 +2179,13 @@
         <v>231</v>
       </c>
       <c r="C11" s="1">
-        <v>0.53169999999999995</v>
+        <v>0.5317</v>
       </c>
       <c r="D11" s="1">
-        <v>0.53810000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1572,13 +2193,13 @@
         <v>1331</v>
       </c>
       <c r="C12" s="1">
-        <v>0.53449999999999998</v>
+        <v>0.5345</v>
       </c>
       <c r="D12" s="1">
-        <v>0.53520000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1586,13 +2207,13 @@
         <v>237</v>
       </c>
       <c r="C13" s="1">
-        <v>0.53149999999999997</v>
+        <v>0.5315</v>
       </c>
       <c r="D13" s="1">
-        <v>0.53390000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1600,13 +2221,13 @@
         <v>177</v>
       </c>
       <c r="C14" s="1">
-        <v>0.53190000000000004</v>
+        <v>0.5319</v>
       </c>
       <c r="D14" s="1">
-        <v>0.52980000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1614,13 +2235,13 @@
         <v>150</v>
       </c>
       <c r="C15" s="1">
-        <v>0.51870000000000005</v>
+        <v>0.5187</v>
       </c>
       <c r="D15" s="1">
-        <v>0.52010000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.5201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1628,13 +2249,13 @@
         <v>92</v>
       </c>
       <c r="C16" s="1">
-        <v>0.51670000000000005</v>
+        <v>0.5167</v>
       </c>
       <c r="D16" s="1">
-        <v>0.51910000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.5191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1642,13 +2263,13 @@
         <v>160</v>
       </c>
       <c r="C17" s="1">
-        <v>0.49120000000000003</v>
+        <v>0.4912</v>
       </c>
       <c r="D17" s="1">
         <v>0.498</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1656,13 +2277,13 @@
         <v>1331</v>
       </c>
       <c r="C18" s="1">
-        <v>0.50970000000000004</v>
+        <v>0.5097</v>
       </c>
       <c r="D18" s="1">
-        <v>0.49559999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1673,10 +2294,10 @@
         <v>0.4798</v>
       </c>
       <c r="D19" s="1">
-        <v>0.48870000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1687,10 +2308,10 @@
         <v>0.4738</v>
       </c>
       <c r="D20" s="1">
-        <v>0.48070000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1701,10 +2322,10 @@
         <v>0.4798</v>
       </c>
       <c r="D21" s="1">
-        <v>0.48020000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1712,13 +2333,13 @@
         <v>391</v>
       </c>
       <c r="C22" s="1">
-        <v>0.48049999999999998</v>
+        <v>0.4805</v>
       </c>
       <c r="D22" s="1">
-        <v>0.47849999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1726,13 +2347,13 @@
         <v>160</v>
       </c>
       <c r="C23" s="1">
-        <v>0.47620000000000001</v>
+        <v>0.4762</v>
       </c>
       <c r="D23" s="1">
-        <v>0.47389999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1740,13 +2361,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>0.46629999999999999</v>
+        <v>0.4663</v>
       </c>
       <c r="D24" s="1">
         <v>0.4708</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1754,13 +2375,13 @@
         <v>86</v>
       </c>
       <c r="C25" s="1">
-        <v>0.46479999999999999</v>
+        <v>0.4648</v>
       </c>
       <c r="D25" s="1">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1768,13 +2389,13 @@
         <v>1433</v>
       </c>
       <c r="C26" s="1">
-        <v>0.45989999999999998</v>
+        <v>0.4599</v>
       </c>
       <c r="D26" s="1">
-        <v>0.46339999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1782,13 +2403,13 @@
         <v>86</v>
       </c>
       <c r="C27" s="1">
-        <v>0.43740000000000001</v>
+        <v>0.4374</v>
       </c>
       <c r="D27" s="1">
-        <v>0.43740000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1796,13 +2417,13 @@
         <v>797</v>
       </c>
       <c r="C28" s="1">
-        <v>0.44429999999999997</v>
+        <v>0.4443</v>
       </c>
       <c r="D28" s="1">
-        <v>0.43169999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1810,13 +2431,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>0.40050000000000002</v>
+        <v>0.4005</v>
       </c>
       <c r="D29" s="1">
-        <v>0.40010000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.4001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1824,13 +2445,13 @@
         <v>16</v>
       </c>
       <c r="C30" s="1">
-        <v>0.40739999999999998</v>
+        <v>0.4074</v>
       </c>
       <c r="D30" s="1">
-        <v>0.39479999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1838,13 +2459,13 @@
         <v>1331</v>
       </c>
       <c r="C31" s="1">
-        <v>0.38590000000000002</v>
+        <v>0.3859</v>
       </c>
       <c r="D31" s="1">
-        <v>0.38829999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1852,13 +2473,13 @@
         <v>1331</v>
       </c>
       <c r="C32" s="1">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="D32" s="1">
         <v>0.3478</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1866,13 +2487,13 @@
         <v>391</v>
       </c>
       <c r="C33" s="1">
-        <v>0.33860000000000001</v>
+        <v>0.3386</v>
       </c>
       <c r="D33" s="1">
-        <v>0.33710000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1880,13 +2501,13 @@
         <v>111</v>
       </c>
       <c r="C34" s="1">
-        <v>0.28860000000000002</v>
+        <v>0.2886</v>
       </c>
       <c r="D34" s="1">
         <v>0.2994</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +2521,7 @@
         <v>0.2853</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1911,10 +2532,10 @@
         <v>0.2787</v>
       </c>
       <c r="D36" s="1">
-        <v>0.27510000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1922,13 +2543,13 @@
         <v>94</v>
       </c>
       <c r="C37" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="D37" s="1">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1936,13 +2557,13 @@
         <v>94</v>
       </c>
       <c r="C38" s="1">
-        <v>0.26590000000000003</v>
+        <v>0.2659</v>
       </c>
       <c r="D38" s="1">
-        <v>0.26040000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1950,13 +2571,13 @@
         <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>0.25819999999999999</v>
+        <v>0.2582</v>
       </c>
       <c r="D39" s="1">
-        <v>0.25990000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1964,13 +2585,13 @@
         <v>393</v>
       </c>
       <c r="C40" s="1">
-        <v>0.26050000000000001</v>
+        <v>0.2605</v>
       </c>
       <c r="D40" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1978,13 +2599,13 @@
         <v>1331</v>
       </c>
       <c r="C41" s="1">
-        <v>0.25259999999999999</v>
+        <v>0.2526</v>
       </c>
       <c r="D41" s="1">
-        <v>0.25030000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1992,13 +2613,13 @@
         <v>1331</v>
       </c>
       <c r="C42" s="1">
-        <v>0.25340000000000001</v>
+        <v>0.2534</v>
       </c>
       <c r="D42" s="1">
-        <v>0.24970000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2006,13 +2627,13 @@
         <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>0.24660000000000001</v>
+        <v>0.2466</v>
       </c>
       <c r="D43" s="1">
-        <v>0.24249999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2020,13 +2641,13 @@
         <v>1331</v>
       </c>
       <c r="C44" s="1">
-        <v>0.24629999999999999</v>
+        <v>0.2463</v>
       </c>
       <c r="D44" s="1">
         <v>0.2419</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2034,13 +2655,13 @@
         <v>1331</v>
       </c>
       <c r="C45" s="1">
-        <v>0.23949999999999999</v>
+        <v>0.2395</v>
       </c>
       <c r="D45" s="1">
-        <v>0.22589999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2051,10 +2672,10 @@
         <v>0.2288</v>
       </c>
       <c r="D46" s="1">
-        <v>0.22209999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2062,13 +2683,13 @@
         <v>29</v>
       </c>
       <c r="C47" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="D47" s="1">
-        <v>0.22059999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2079,10 +2700,10 @@
         <v>0.2135</v>
       </c>
       <c r="D48" s="1">
-        <v>0.21190000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.2119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2090,475 +2711,1443 @@
         <v>392</v>
       </c>
       <c r="C49" s="1">
-        <v>0.16189999999999999</v>
+        <v>0.1619</v>
       </c>
       <c r="D49" s="1">
-        <v>0.15359999999999999</v>
+        <v>0.1536</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:D48">
-    <sortCondition descending="1" ref="D1"/>
+    <sortCondition ref="D1" descending="1"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="50.2142857142857" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C1">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1">
+        <v>0.4856</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.4902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C2">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1">
+        <v>0.5022</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C3">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="1">
+        <v>0.5082</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C4">
         <v>847</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="1">
+        <v>0.5022</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C5">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="1">
+        <v>0.5045</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C6">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="1">
+        <v>0.5191</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C7">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="1">
+        <v>0.4764</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.4842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C8">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="1">
+        <v>0.4612</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="1">
+        <v>0.4674</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.4695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C10">
         <v>394</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="1">
+        <v>0.5313</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C11">
         <v>393</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="1">
+        <v>0.5506</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C12">
         <v>163</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="1">
+        <v>0.5225</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C13">
         <v>261</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="1">
+        <v>0.5399</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C14">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="1">
+        <v>0.5663</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>1331</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="1">
+        <v>0.569</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>393</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="1">
+        <v>0.5615</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.5596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
+      <c r="B17" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C17">
         <v>393</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="1">
+        <v>0.5508</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C18">
         <v>393</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="1">
+        <v>0.551</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C19">
         <v>190</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="1">
+        <v>0.5388</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C20">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="D20" s="1">
+        <v>0.5341</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C21">
         <v>412</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="1">
+        <v>0.3051</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.3035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="D22" s="1">
+        <v>0.3042</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.3032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C23">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="D23" s="1">
+        <v>0.3281</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.3252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C24">
         <v>391</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="1">
+        <v>0.5594</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.5589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C25">
         <v>228</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="1">
+        <v>0.5463</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>1331</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="D26" s="1">
+        <v>0.5592</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.5588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="D27" s="1">
+        <v>0.4698</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.4767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="D28" s="1">
+        <v>0.4775</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.4804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="D29" s="1">
+        <v>0.4734</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.4837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="D30" s="1">
+        <v>0.4829</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>371</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="1">
+        <v>0.5607</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.5565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="D32" s="1">
+        <v>0.4726</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.4781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="1">
+        <v>0.4863</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.4926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>430</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="1">
+        <v>0.5609</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.5621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="6">
         <v>475</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="1">
+        <v>0.5566</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.5568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="6">
         <v>428</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="1">
+        <v>0.5585</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.5607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="6">
         <v>3789</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="1">
+        <v>0.5609</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.5559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="6">
+        <v>3789</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.5635</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.5586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="6">
         <v>1229</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="1">
+        <v>0.5607</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.5616</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="6">
         <v>1229</v>
       </c>
+      <c r="D40" s="1">
+        <v>0.5538</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.5514</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="50.2142857142857" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1331</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.569</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.566</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>393</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5663</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5622</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="6">
+        <v>430</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5609</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5621</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1229</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5607</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5616</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>428</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5585</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5607</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="6">
+        <v>393</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5615</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5596</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>391</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5594</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5589</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1331</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5592</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5588</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3789</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5635</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5586</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="6">
+        <v>475</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5566</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5568</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="6">
+        <v>371</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5607</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5565</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3789</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5609</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5559</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>393</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.551</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5534</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>393</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.5506</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.5526</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>393</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5508</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.5516</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1229</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.5538</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5514</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>228</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.5463</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5419</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>244</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5341</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5385</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>190</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5388</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5361</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>261</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5399</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.5343</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22">
+        <v>163</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5225</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5311</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>394</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.5313</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.5287</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>141</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5191</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.5188</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.5022</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5079</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>221</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.5082</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.5077</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.5045</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.5035</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>847</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5022</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5008</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="6">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.4863</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.4926</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.4856</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.4902</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.4764</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.4842</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="6">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.4829</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="6">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.4734</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.4837</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="6">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.4775</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.4804</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="6">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.4726</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.4781</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="6">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.4698</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.4767</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.4674</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.4695</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.4612</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.3281</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.3252</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>412</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.3051</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.3035</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.3042</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.3032</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:E40">
+    <sortCondition ref="E1" descending="1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/huggingface_pretrained_models_accuracy.xlsx
+++ b/huggingface_pretrained_models_accuracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13460" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="13460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="huggingface" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>bert-base-chinese</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>chinese_roberta_wwm_large_ext_L-24_H-1024_A-16+r_drop</t>
   </si>
 </sst>
 </file>
@@ -345,12 +348,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,15 +376,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,22 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,45 +422,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,7 +445,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,6 +474,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,32 +489,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -533,13 +529,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,102 +679,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -665,25 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,19 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +751,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -780,21 +791,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,152 +825,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,16 +980,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,16 +2022,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F1" t="s">
@@ -2731,7 +2724,7 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2743,10 +2736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C1">
@@ -2760,10 +2753,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C2">
@@ -2777,10 +2770,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C3">
@@ -2794,10 +2787,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C4">
@@ -2811,10 +2804,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C5">
@@ -2828,10 +2821,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C6">
@@ -2845,10 +2838,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C7">
@@ -2862,10 +2855,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C8">
@@ -2879,10 +2872,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C9">
@@ -2896,10 +2889,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C10">
@@ -2913,10 +2906,10 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C11">
@@ -2930,10 +2923,10 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C12">
@@ -2947,10 +2940,10 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C13">
@@ -2964,10 +2957,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C14">
@@ -2981,13 +2974,13 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1331</v>
       </c>
       <c r="D15" s="1">
@@ -2998,13 +2991,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>393</v>
       </c>
       <c r="D16" s="1">
@@ -3015,10 +3008,10 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C17">
@@ -3032,10 +3025,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C18">
@@ -3049,10 +3042,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C19">
@@ -3066,10 +3059,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C20">
@@ -3083,10 +3076,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C21">
@@ -3100,10 +3093,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C22">
@@ -3117,10 +3110,10 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C23">
@@ -3134,10 +3127,10 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C24">
@@ -3151,10 +3144,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C25">
@@ -3168,13 +3161,13 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1331</v>
       </c>
       <c r="D26" s="1">
@@ -3185,13 +3178,13 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>29</v>
       </c>
       <c r="D27" s="1">
@@ -3202,13 +3195,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>38</v>
       </c>
       <c r="D28" s="1">
@@ -3219,13 +3212,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>52</v>
       </c>
       <c r="D29" s="1">
@@ -3236,13 +3229,13 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>72</v>
       </c>
       <c r="D30" s="1">
@@ -3253,13 +3246,13 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>371</v>
       </c>
       <c r="D31" s="1">
@@ -3270,13 +3263,13 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>33</v>
       </c>
       <c r="D32" s="1">
@@ -3287,13 +3280,13 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>49</v>
       </c>
       <c r="D33" s="1">
@@ -3304,13 +3297,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>430</v>
       </c>
       <c r="D34" s="1">
@@ -3321,13 +3314,13 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>475</v>
       </c>
       <c r="D35" s="1">
@@ -3338,13 +3331,13 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>428</v>
       </c>
       <c r="D36" s="1">
@@ -3355,13 +3348,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>3789</v>
       </c>
       <c r="D37" s="1">
@@ -3372,13 +3365,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>3789</v>
       </c>
       <c r="D38" s="1">
@@ -3389,13 +3382,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>1229</v>
       </c>
       <c r="D39" s="1">
@@ -3406,13 +3399,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>1229</v>
       </c>
       <c r="D40" s="1">
@@ -3432,10 +3425,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -3447,16 +3440,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G1" t="s">
@@ -3464,13 +3457,13 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1331</v>
       </c>
       <c r="D2" s="1">
@@ -3481,10 +3474,10 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C3">
@@ -3498,13 +3491,13 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>430</v>
       </c>
       <c r="D4" s="1">
@@ -3515,13 +3508,13 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1229</v>
       </c>
       <c r="D5" s="1">
@@ -3532,13 +3525,13 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>428</v>
       </c>
       <c r="D6" s="1">
@@ -3549,13 +3542,13 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>393</v>
       </c>
       <c r="D7" s="1">
@@ -3566,10 +3559,10 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C8">
@@ -3583,13 +3576,13 @@
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1331</v>
       </c>
       <c r="D9" s="1">
@@ -3600,13 +3593,13 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>3789</v>
       </c>
       <c r="D10" s="1">
@@ -3617,535 +3610,552 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1331</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.562</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5584</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:5">
+      <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="5">
         <v>475</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>0.5566</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>0.5568</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="5" t="s">
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="5">
         <v>371</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>0.5607</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>0.5565</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="5" t="s">
+    <row r="14" customFormat="1" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="5">
         <v>3789</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>0.5609</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>0.5559</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="5" t="s">
+    <row r="15" customFormat="1" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C14">
-        <v>393</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.551</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.5534</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C15">
         <v>393</v>
       </c>
       <c r="D15" s="1">
-        <v>0.5506</v>
+        <v>0.551</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5526</v>
+        <v>0.5534</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C16">
         <v>393</v>
       </c>
       <c r="D16" s="1">
+        <v>0.5506</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.5526</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>393</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.5508</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>0.5516</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="5" t="s">
+    <row r="18" customFormat="1" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="5">
         <v>1229</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>0.5538</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>0.5514</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="19" customFormat="1" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>228</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>0.5463</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>0.5419</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="5" t="s">
+    <row r="20" customFormat="1" spans="1:5">
+      <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>244</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>0.5341</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>0.5385</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="5" t="s">
+    <row r="21" customFormat="1" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>190</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>0.5388</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>0.5361</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="5" t="s">
+    <row r="22" customFormat="1" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>261</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>0.5399</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>0.5343</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="5" t="s">
+    <row r="23" customFormat="1" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>163</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>0.5225</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>0.5311</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="5" t="s">
+    <row r="24" customFormat="1" spans="1:5">
+      <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>394</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>0.5313</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>0.5287</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="5" t="s">
+    <row r="25" customFormat="1" spans="1:5">
+      <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>141</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>0.5191</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>0.5188</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:5">
-      <c r="A25" s="5" t="s">
+    <row r="26" customFormat="1" spans="1:5">
+      <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>64</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0.5022</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>0.5079</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="5" t="s">
+    <row r="27" customFormat="1" spans="1:5">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>221</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>0.5082</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>0.5077</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="5" t="s">
+    <row r="28" customFormat="1" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>96</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0.5045</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>0.5035</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="5" t="s">
+    <row r="29" customFormat="1" spans="1:5">
+      <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>847</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>0.5022</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.5008</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="5" t="s">
+    <row r="30" customFormat="1" spans="1:5">
+      <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C30" s="5">
         <v>49</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>0.4863</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>0.4926</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="5" t="s">
+    <row r="31" customFormat="1" spans="1:5">
+      <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>41</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>0.4856</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>0.4902</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="5" t="s">
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>56</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>0.4764</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>0.4842</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="5" t="s">
+    <row r="33" customFormat="1" spans="1:5">
+      <c r="A33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C33" s="5">
         <v>72</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>0.4829</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>0.484</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:5">
-      <c r="A33" s="5" t="s">
+    <row r="34" customFormat="1" spans="1:5">
+      <c r="A34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C34" s="5">
         <v>52</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.4734</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.4837</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:5">
-      <c r="A34" s="5" t="s">
+    <row r="35" customFormat="1" spans="1:5">
+      <c r="A35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C35" s="5">
         <v>38</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <v>0.4775</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>0.4804</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:5">
-      <c r="A35" s="5" t="s">
+    <row r="36" customFormat="1" spans="1:5">
+      <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C36" s="5">
         <v>33</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>0.4726</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <v>0.4781</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:5">
-      <c r="A36" s="5" t="s">
+    <row r="37" customFormat="1" spans="1:5">
+      <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C37" s="5">
         <v>29</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>0.4698</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>0.4767</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:5">
-      <c r="A37" s="5" t="s">
+    <row r="38" customFormat="1" spans="1:5">
+      <c r="A38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>48</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>0.4674</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>0.4695</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:5">
-      <c r="A38" s="5" t="s">
+    <row r="39" customFormat="1" spans="1:5">
+      <c r="A39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>32</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>0.4612</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>0.467</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:5">
-      <c r="A39" s="5" t="s">
+    <row r="40" customFormat="1" spans="1:5">
+      <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>135</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>0.3281</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>0.3252</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:5">
-      <c r="A40" s="5" t="s">
+    <row r="41" customFormat="1" spans="1:5">
+      <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>412</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>0.3051</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>0.3035</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:5">
-      <c r="A41" s="5" t="s">
+    <row r="42" customFormat="1" spans="1:5">
+      <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>50</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>0.3042</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>0.3032</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E40">
-    <sortCondition ref="E1" descending="1"/>
+  <sortState ref="A2:E42">
+    <sortCondition ref="E2" descending="1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
